--- a/tests/dataset/test2.xlsx
+++ b/tests/dataset/test2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antoine\Documents\maths_projet\R5.12-Recommendation-System\tests\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D41588E-71F1-4B6F-B411-12D3792569BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269EF648-EB3D-4A89-AA4A-4A93C4D322ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="toy_complet" sheetId="1" r:id="rId1"/>
@@ -20,15 +20,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>5 -1 1 4</t>
+    <t>2 -1 1 4 1</t>
   </si>
   <si>
-    <t>5 2 1 4</t>
+    <t>2 5 1 4 1</t>
   </si>
   <si>
-    <t>2 4 3 2</t>
+    <t>4 3 2 1 0</t>
+  </si>
+  <si>
+    <t>5 2 3 2 3</t>
+  </si>
+  <si>
+    <t>2 5 1 4 2</t>
   </si>
 </sst>
 </file>
@@ -293,7 +299,7 @@
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -313,14 +319,18 @@
     </row>
     <row r="3" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-    </row>
     <row r="5" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>

--- a/tests/dataset/test2.xlsx
+++ b/tests/dataset/test2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antoine\Documents\maths_projet\R5.12-Recommendation-System\tests\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269EF648-EB3D-4A89-AA4A-4A93C4D322ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC158D32-00B3-482F-8C35-88E9D3681E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="toy_complet" sheetId="1" r:id="rId1"/>
@@ -22,19 +22,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>2 -1 1 4 1</t>
+    <t>5 2 3 2 3 0</t>
   </si>
   <si>
-    <t>2 5 1 4 1</t>
+    <t>2 -1 1 4 1 5</t>
   </si>
   <si>
-    <t>4 3 2 1 0</t>
+    <t>2 5 1 4 1 5</t>
   </si>
   <si>
-    <t>5 2 3 2 3</t>
+    <t>2 5 1 4 2 5</t>
   </si>
   <si>
-    <t>2 5 1 4 2</t>
+    <t>4 3 2 1 0 2</t>
   </si>
 </sst>
 </file>
@@ -299,7 +299,7 @@
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -309,27 +309,27 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
     <row r="4" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
